--- a/orcamento.xlsx
+++ b/orcamento.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Folha1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Folha1!$A$1:$J$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Folha1!$A$1:$J$43</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -404,16 +404,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>944640</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28440</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>149040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>251280</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:colOff>250560</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -426,8 +426,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="944640" y="7750080"/>
-          <a:ext cx="4585320" cy="677160"/>
+          <a:off x="944640" y="6121080"/>
+          <a:ext cx="3956040" cy="676440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -448,9 +448,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>674640</xdr:colOff>
+      <xdr:colOff>591840</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -464,7 +464,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7328880" cy="2159640"/>
+          <a:ext cx="6453360" cy="2158920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -659,10 +659,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:J36"/>
+  <dimension ref="A4:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -858,155 +858,56 @@
       <c r="J24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="A25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="A26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-    </row>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="29">
     <mergeCell ref="A13:C14"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="G13:J14"/>
@@ -1031,38 +932,11 @@
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A25:H25"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
